--- a/Data/CUSO4_T2/Summary_CUSO4.xlsx
+++ b/Data/CUSO4_T2/Summary_CUSO4.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Electron-Paramagnetic-Resonance\Data\CUSO4_T2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347E4411-A299-4FBE-84C9-9F71368EAA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA50289-BCCD-438C-9E69-28E6E29E73F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F8D7F140-CA2F-4D4F-BC1B-A79DD8873018}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F8D7F140-CA2F-4D4F-BC1B-A79DD8873018}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="CuSo4" sheetId="2" r:id="rId1"/>
+    <sheet name="CuSo4_H2O2" sheetId="3" r:id="rId2"/>
+    <sheet name="Combined" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>D0</t>
   </si>
@@ -105,13 +107,46 @@
   </si>
   <si>
     <t>Absorbance (AUC)</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10 </t>
+  </si>
+  <si>
+    <t>100 (D8):900</t>
+  </si>
+  <si>
+    <t>100 (D9):900</t>
+  </si>
+  <si>
+    <t>mols</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CuSO4</t>
+  </si>
+  <si>
+    <t>CuSO4+H2O2</t>
+  </si>
+  <si>
+    <t>Volume. H2O2 3%</t>
+  </si>
+  <si>
+    <t>volume CuSO4</t>
+  </si>
+  <si>
+    <t>Original. CuSO4 Conc. (mM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +159,25 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,9 +192,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA15E3B-AEC9-4712-A17F-2D2DE635F05D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,26 +750,612 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.4010727</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1.00142E-4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>2.1991369999999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>2909.4830000000002</v>
       </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46576B0D-C4AF-48B8-B44D-9783B797EE0D}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="23.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>401.0727</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
+        <v>200</v>
+      </c>
+      <c r="E2" s="4">
+        <v>133.6909</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.0107269999999999E-5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.10014199999999999</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.1931189999999998</v>
+      </c>
+      <c r="J2" s="5">
+        <v>78480.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>300.80452500000001</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4">
+        <v>200</v>
+      </c>
+      <c r="E3" s="4">
+        <v>100.268175</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.0080450000000001E-5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7.5106499999999896E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2.1936779999999998</v>
+      </c>
+      <c r="J3" s="4">
+        <v>52394.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>200.53635</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4">
+        <v>200</v>
+      </c>
+      <c r="E4" s="4">
+        <v>66.84545</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.005364E-5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.0070999999999997E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2.1967539999999999</v>
+      </c>
+      <c r="J4" s="4">
+        <v>26066.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>100.268175</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200</v>
+      </c>
+      <c r="E5" s="4">
+        <v>33.422725</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.002682E-5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.5035499999999999E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.1961940000000002</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12773.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>50.1340875</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4">
+        <v>16.7113625</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.01341E-6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.2517749999999999E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.199417</v>
+      </c>
+      <c r="J6" s="4">
+        <v>11237.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>20.053635</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
+        <v>200</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.684545</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.0053600000000001E-6</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5.0070999999999996E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.1933980000000002</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2065.8560000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>40.10727</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4">
+        <v>200</v>
+      </c>
+      <c r="E8" s="4">
+        <v>13.36909</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.01073E-6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.1730689999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5723.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF23F6A1-7448-4659-AA69-0E48D5145361}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>401.0727</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.10014199999999999</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.1953550000000002</v>
+      </c>
+      <c r="D2" s="7">
+        <v>290228.3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>300.80452500000001</v>
+      </c>
+      <c r="B3" s="7">
+        <v>7.5106499999999896E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.1961940000000002</v>
+      </c>
+      <c r="D3" s="7">
+        <v>226833</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>200.53635</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5.0070999999999997E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.1967539999999999</v>
+      </c>
+      <c r="D4" s="7">
+        <v>153971.9</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>100.268175</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2.5035499999999999E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.197174</v>
+      </c>
+      <c r="D5" s="7">
+        <v>76805.83</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>50.1340875</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1.2517749999999999E-2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.1996980000000002</v>
+      </c>
+      <c r="D6" s="7">
+        <v>38993.11</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>20.053635</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5.0070999999999996E-3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.1970339999999999</v>
+      </c>
+      <c r="D7" s="7">
+        <v>17050.669999999998</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>40.10727</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.0014199999999999E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.1987160000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>32272.02</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>133.6909</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3.3380666666666663E-2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2.1931189999999998</v>
+      </c>
+      <c r="D9" s="9">
+        <v>78480.56</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>100.268175</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2.5035499999999964E-2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2.1936779999999998</v>
+      </c>
+      <c r="D10" s="8">
+        <v>52394.26</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>66.84545</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1.6690333333333331E-2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2.1967539999999999</v>
+      </c>
+      <c r="D11" s="8">
+        <v>26066.65</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>33.422725</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8.3451666666666657E-3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2.1961940000000002</v>
+      </c>
+      <c r="D12" s="8">
+        <v>12773.81</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>16.7113625</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4.1725833333333328E-3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.199417</v>
+      </c>
+      <c r="D13" s="8">
+        <v>11237.93</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6.684545</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1.6690333333333333E-3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.1933980000000002</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2065.8560000000002</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>13.36909</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3.3380666666666665E-3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.1730689999999999</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5723.94</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>